--- a/EXCEL/ASSIGNMENT/EXCL ASSIMENT2023.xlsx
+++ b/EXCEL/ASSIGNMENT/EXCL ASSIMENT2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\DA GITHUB\meethirpara9836\EXCEL\ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFC316-018E-4AC7-9EAD-98F4D7F11EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23620A35-2633-438E-B589-509F88920A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-3,5,6" sheetId="1" r:id="rId1"/>
@@ -2960,7 +2960,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3097,6 +3097,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3160,11 +3164,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3488,7 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -3537,10 +3536,10 @@
       <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16981,10 +16980,10 @@
       <c r="Q1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="73" t="s">
         <v>425</v>
       </c>
-      <c r="S1" s="69"/>
+      <c r="S1" s="73"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -17047,10 +17046,10 @@
         <f>IF(MAX(H2:H51)&gt;69,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="72" t="s">
         <v>421</v>
       </c>
-      <c r="S2" s="68"/>
+      <c r="S2" s="72"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -19949,33 +19948,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="G1" s="71" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="G1" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="K1" s="71" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="K1" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="U1" s="70" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="U1" s="74" t="s">
         <v>421</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
@@ -19988,11 +19987,11 @@
       <c r="I2" s="37"/>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="V2" s="23" t="s">
         <v>302</v>
       </c>
@@ -20101,11 +20100,11 @@
         <v>2210</v>
       </c>
       <c r="P4" s="27"/>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="S4" s="77"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="27"/>
       <c r="U4" s="31"/>
     </row>
@@ -23123,15 +23122,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="E1" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="F1" s="86"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -23340,10 +23339,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="86"/>
       <c r="E13" s="56">
         <v>44603</v>
       </c>
@@ -23405,10 +23404,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="B18" s="83"/>
+      <c r="B18" s="87"/>
       <c r="E18" s="56">
         <v>44608</v>
       </c>
@@ -23417,11 +23416,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84">
+      <c r="A19" s="88">
         <f>SUM(C3:C11)/COUNT(C3:C11)</f>
         <v>71.777777777777771</v>
       </c>
-      <c r="B19" s="85"/>
+      <c r="B19" s="89"/>
       <c r="E19" s="56">
         <v>44609</v>
       </c>
@@ -23544,25 +23543,25 @@
     <col min="1" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="69" t="s">
         <v>429</v>
       </c>
     </row>
@@ -23573,10 +23572,10 @@
       <c r="B3" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="66">
         <v>1411750000</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="67">
         <v>44926</v>
       </c>
     </row>
@@ -23587,10 +23586,10 @@
       <c r="B4" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="66">
         <v>1392329000</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -23601,10 +23600,10 @@
       <c r="B5" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="66">
         <v>335305000</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -23615,10 +23614,10 @@
       <c r="B6" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="66">
         <v>277749853</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="67">
         <v>44926</v>
       </c>
     </row>
@@ -23629,10 +23628,10 @@
       <c r="B7" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="66">
         <v>241499431</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="67">
         <v>44986</v>
       </c>
     </row>
@@ -23643,10 +23642,10 @@
       <c r="B8" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="66">
         <v>216783400</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="67">
         <v>44641</v>
       </c>
     </row>
@@ -23657,10 +23656,10 @@
       <c r="B9" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="66">
         <v>203062512</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="67">
         <v>44774</v>
       </c>
     </row>
@@ -23671,10 +23670,10 @@
       <c r="B10" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="66">
         <v>169828911</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="67">
         <v>44726</v>
       </c>
     </row>
@@ -23685,10 +23684,10 @@
       <c r="B11" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="66">
         <v>146424729</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="67">
         <v>44927</v>
       </c>
     </row>
@@ -23699,10 +23698,10 @@
       <c r="B12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="66">
         <v>129035733</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="67">
         <v>45016</v>
       </c>
     </row>
@@ -23713,10 +23712,10 @@
       <c r="B13" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="66">
         <v>124560000</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -23727,10 +23726,10 @@
       <c r="B14" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="66">
         <v>110682000</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -23741,10 +23740,10 @@
       <c r="B15" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="66">
         <v>105223000</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -23755,10 +23754,10 @@
       <c r="B16" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="66">
         <v>105163988</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -23769,10 +23768,10 @@
       <c r="B17" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="66">
         <v>100000000</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="68">
         <v>45017</v>
       </c>
     </row>
@@ -23783,10 +23782,10 @@
       <c r="B18" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="66">
         <v>95370000</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="67">
         <v>43647</v>
       </c>
     </row>
@@ -23797,10 +23796,10 @@
       <c r="B19" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="66">
         <v>85279553</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="67">
         <v>44926</v>
       </c>
     </row>
@@ -23811,10 +23810,10 @@
       <c r="B20" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="66">
         <v>85227900</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -23825,10 +23824,10 @@
       <c r="B21" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="66">
         <v>84432670</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="67">
         <v>45016</v>
       </c>
     </row>
@@ -23839,10 +23838,10 @@
       <c r="B22" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="66">
         <v>68263022</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -23853,10 +23852,10 @@
       <c r="B23" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="66">
         <v>68128000</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -23867,10 +23866,10 @@
       <c r="B24" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="66">
         <v>67026292</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="67">
         <v>44377</v>
       </c>
     </row>
@@ -23881,10 +23880,10 @@
       <c r="B25" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="66">
         <v>61741120</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="67">
         <v>44796</v>
       </c>
     </row>
@@ -23895,10 +23894,10 @@
       <c r="B26" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="66">
         <v>60604992</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -23909,10 +23908,10 @@
       <c r="B27" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="66">
         <v>58784790</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="67">
         <v>45077</v>
       </c>
     </row>
@@ -23923,10 +23922,10 @@
       <c r="B28" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="66">
         <v>55770232</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D28" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -23937,10 +23936,10 @@
       <c r="B29" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="66">
         <v>52215503</v>
       </c>
-      <c r="D29" s="88">
+      <c r="D29" s="67">
         <v>45107</v>
       </c>
     </row>
@@ -23951,10 +23950,10 @@
       <c r="B30" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C30" s="87">
+      <c r="C30" s="66">
         <v>51526000</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="67">
         <v>44927</v>
       </c>
     </row>
@@ -23965,10 +23964,10 @@
       <c r="B31" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C31" s="66">
         <v>51439038</v>
       </c>
-      <c r="D31" s="88">
+      <c r="D31" s="67">
         <v>44926</v>
       </c>
     </row>
@@ -23979,10 +23978,10 @@
       <c r="B32" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="66">
         <v>48345223</v>
       </c>
-      <c r="D32" s="88">
+      <c r="D32" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -23993,10 +23992,10 @@
       <c r="B33" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="66">
         <v>46044703</v>
       </c>
-      <c r="D33" s="88">
+      <c r="D33" s="67">
         <v>44699</v>
       </c>
     </row>
@@ -24007,10 +24006,10 @@
       <c r="B34" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="66">
         <v>45400000</v>
       </c>
-      <c r="D34" s="88">
+      <c r="D34" s="67">
         <v>44562</v>
       </c>
     </row>
@@ -24021,10 +24020,10 @@
       <c r="B35" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="66">
         <v>43324000</v>
       </c>
-      <c r="D35" s="88">
+      <c r="D35" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24035,10 +24034,10 @@
       <c r="B36" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="66">
         <v>42885900</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24049,10 +24048,10 @@
       <c r="B37" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="66">
         <v>41984500</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="67">
         <v>43282</v>
       </c>
     </row>
@@ -24063,10 +24062,10 @@
       <c r="B38" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="66">
         <v>41130432</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="67">
         <v>44593</v>
       </c>
     </row>
@@ -24077,10 +24076,10 @@
       <c r="B39" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="66">
         <v>40276000</v>
       </c>
-      <c r="D39" s="88">
+      <c r="D39" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -24091,10 +24090,10 @@
       <c r="B40" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C40" s="87">
+      <c r="C40" s="66">
         <v>37706000</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="67">
         <v>45077</v>
       </c>
     </row>
@@ -24105,10 +24104,10 @@
       <c r="B41" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C41" s="87">
+      <c r="C41" s="66">
         <v>37074400</v>
       </c>
-      <c r="D41" s="88">
+      <c r="D41" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -24119,10 +24118,10 @@
       <c r="B42" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C42" s="87">
+      <c r="C42" s="66">
         <v>36197788</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="67">
         <v>45017</v>
       </c>
     </row>
@@ -24133,10 +24132,10 @@
       <c r="B43" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C43" s="87">
+      <c r="C43" s="66">
         <v>34262840</v>
       </c>
-      <c r="D43" s="88">
+      <c r="D43" s="67">
         <v>44927</v>
       </c>
     </row>
@@ -24147,10 +24146,10 @@
       <c r="B44" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C44" s="87">
+      <c r="C44" s="66">
         <v>33396698</v>
       </c>
-      <c r="D44" s="88">
+      <c r="D44" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24161,10 +24160,10 @@
       <c r="B45" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C45" s="87">
+      <c r="C45" s="66">
         <v>33200000</v>
       </c>
-      <c r="D45" s="88">
+      <c r="D45" s="67">
         <v>45153</v>
       </c>
     </row>
@@ -24175,10 +24174,10 @@
       <c r="B46" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C46" s="87">
+      <c r="C46" s="66">
         <v>33086278</v>
       </c>
-      <c r="D46" s="88">
+      <c r="D46" s="67">
         <v>44742</v>
       </c>
     </row>
@@ -24189,10 +24188,10 @@
       <c r="B47" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C47" s="87">
+      <c r="C47" s="66">
         <v>32419747</v>
       </c>
-      <c r="D47" s="88">
+      <c r="D47" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24203,10 +24202,10 @@
       <c r="B48" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C48" s="87">
+      <c r="C48" s="66">
         <v>32175224</v>
       </c>
-      <c r="D48" s="88">
+      <c r="D48" s="67">
         <v>44691</v>
       </c>
     </row>
@@ -24217,10 +24216,10 @@
       <c r="B49" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="87">
+      <c r="C49" s="66">
         <v>31890000</v>
       </c>
-      <c r="D49" s="88">
+      <c r="D49" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24231,10 +24230,10 @@
       <c r="B50" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C50" s="87">
+      <c r="C50" s="66">
         <v>30832019</v>
       </c>
-      <c r="D50" s="88">
+      <c r="D50" s="67">
         <v>44374</v>
       </c>
     </row>
@@ -24245,10 +24244,10 @@
       <c r="B51" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C51" s="87">
+      <c r="C51" s="66">
         <v>29389150</v>
       </c>
-      <c r="D51" s="88">
+      <c r="D51" s="67">
         <v>44544</v>
       </c>
     </row>
@@ -24259,10 +24258,10 @@
       <c r="B52" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C52" s="87">
+      <c r="C52" s="66">
         <v>29164578</v>
       </c>
-      <c r="D52" s="88">
+      <c r="D52" s="67">
         <v>44525</v>
       </c>
     </row>
@@ -24273,10 +24272,10 @@
       <c r="B53" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C53" s="87">
+      <c r="C53" s="66">
         <v>28302000</v>
       </c>
-      <c r="D53" s="88">
+      <c r="D53" s="67">
         <v>43646</v>
       </c>
     </row>
@@ -24287,10 +24286,10 @@
       <c r="B54" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="66">
         <v>26923353</v>
       </c>
-      <c r="D54" s="88">
+      <c r="D54" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24301,10 +24300,10 @@
       <c r="B55" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C55" s="87">
+      <c r="C55" s="66">
         <v>26705200</v>
       </c>
-      <c r="D55" s="88">
+      <c r="D55" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -24315,10 +24314,10 @@
       <c r="B56" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C56" s="87">
+      <c r="C56" s="66">
         <v>25660000</v>
       </c>
-      <c r="D56" s="88">
+      <c r="D56" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24329,10 +24328,10 @@
       <c r="B57" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C57" s="87">
+      <c r="C57" s="66">
         <v>24348251</v>
       </c>
-      <c r="D57" s="88">
+      <c r="D57" s="67">
         <v>43647</v>
       </c>
     </row>
@@ -24343,10 +24342,10 @@
       <c r="B58" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C58" s="87">
+      <c r="C58" s="66">
         <v>24112753</v>
       </c>
-      <c r="D58" s="88">
+      <c r="D58" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24357,10 +24356,10 @@
       <c r="B59" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C59" s="87">
+      <c r="C59" s="66">
         <v>23373283</v>
       </c>
-      <c r="D59" s="88">
+      <c r="D59" s="67">
         <v>45107</v>
       </c>
     </row>
@@ -24371,10 +24370,10 @@
       <c r="B60" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C60" s="87">
+      <c r="C60" s="66">
         <v>23293699</v>
       </c>
-      <c r="D60" s="88">
+      <c r="D60" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24385,10 +24384,10 @@
       <c r="B61" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C61" s="87">
+      <c r="C61" s="66">
         <v>22923000</v>
       </c>
-      <c r="D61" s="88">
+      <c r="D61" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24399,10 +24398,10 @@
       <c r="B62" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C62" s="87">
+      <c r="C62" s="66">
         <v>22185654</v>
       </c>
-      <c r="D62" s="88">
+      <c r="D62" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24413,10 +24412,10 @@
       <c r="B63" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C63" s="87">
+      <c r="C63" s="66">
         <v>22181000</v>
       </c>
-      <c r="D63" s="88">
+      <c r="D63" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24427,10 +24426,10 @@
       <c r="B64" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C64" s="87">
+      <c r="C64" s="66">
         <v>21507723</v>
       </c>
-      <c r="D64" s="88">
+      <c r="D64" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24441,10 +24440,10 @@
       <c r="B65" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C65" s="87">
+      <c r="C65" s="66">
         <v>19960889</v>
       </c>
-      <c r="D65" s="88">
+      <c r="D65" s="67">
         <v>45107</v>
       </c>
     </row>
@@ -24455,10 +24454,10 @@
       <c r="B66" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C66" s="87">
+      <c r="C66" s="66">
         <v>19899377</v>
       </c>
-      <c r="D66" s="88">
+      <c r="D66" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24469,10 +24468,10 @@
       <c r="B67" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C67" s="87">
+      <c r="C67" s="66">
         <v>19610769</v>
       </c>
-      <c r="D67" s="88">
+      <c r="D67" s="67">
         <v>44818</v>
       </c>
     </row>
@@ -24483,10 +24482,10 @@
       <c r="B68" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C68" s="87">
+      <c r="C68" s="66">
         <v>19053815</v>
       </c>
-      <c r="D68" s="88">
+      <c r="D68" s="67">
         <v>44759</v>
       </c>
     </row>
@@ -24497,10 +24496,10 @@
       <c r="B69" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C69" s="87">
+      <c r="C69" s="66">
         <v>18354600</v>
       </c>
-      <c r="D69" s="88">
+      <c r="D69" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -24511,10 +24510,10 @@
       <c r="B70" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C70" s="87">
+      <c r="C70" s="66">
         <v>18143379</v>
       </c>
-      <c r="D70" s="88">
+      <c r="D70" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24525,10 +24524,10 @@
       <c r="B71" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C71" s="87">
+      <c r="C71" s="66">
         <v>17904300</v>
       </c>
-      <c r="D71" s="88">
+      <c r="D71" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -24539,10 +24538,10 @@
       <c r="B72" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C72" s="87">
+      <c r="C72" s="66">
         <v>17223497</v>
       </c>
-      <c r="D72" s="88">
+      <c r="D72" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24553,10 +24552,10 @@
       <c r="B73" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C73" s="87">
+      <c r="C73" s="66">
         <v>17109746</v>
       </c>
-      <c r="D73" s="88">
+      <c r="D73" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24567,10 +24566,10 @@
       <c r="B74" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C74" s="87">
+      <c r="C74" s="66">
         <v>16818391</v>
       </c>
-      <c r="D74" s="88">
+      <c r="D74" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24581,10 +24580,10 @@
       <c r="B75" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C75" s="87">
+      <c r="C75" s="66">
         <v>15552211</v>
       </c>
-      <c r="D75" s="88">
+      <c r="D75" s="67">
         <v>43527</v>
       </c>
     </row>
@@ -24595,10 +24594,10 @@
       <c r="B76" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C76" s="87">
+      <c r="C76" s="66">
         <v>15178979</v>
       </c>
-      <c r="D76" s="88">
+      <c r="D76" s="67">
         <v>44671</v>
       </c>
     </row>
@@ -24609,10 +24608,10 @@
       <c r="B77" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C77" s="87">
+      <c r="C77" s="66">
         <v>13261638</v>
       </c>
-      <c r="D77" s="88">
+      <c r="D77" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24623,10 +24622,10 @@
       <c r="B78" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C78" s="87">
+      <c r="C78" s="66">
         <v>13249924</v>
       </c>
-      <c r="D78" s="88">
+      <c r="D78" s="67">
         <v>44013</v>
       </c>
     </row>
@@ -24637,10 +24636,10 @@
       <c r="B79" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C79" s="87">
+      <c r="C79" s="66">
         <v>13246394</v>
       </c>
-      <c r="D79" s="88">
+      <c r="D79" s="67">
         <v>44788</v>
       </c>
     </row>
@@ -24651,10 +24650,10 @@
       <c r="B80" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C80" s="87">
+      <c r="C80" s="66">
         <v>12837740</v>
       </c>
-      <c r="D80" s="88">
+      <c r="D80" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24665,10 +24664,10 @@
       <c r="B81" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C81" s="87">
+      <c r="C81" s="66">
         <v>12606998</v>
       </c>
-      <c r="D81" s="88">
+      <c r="D81" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24679,10 +24678,10 @@
       <c r="B82" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C82" s="87">
+      <c r="C82" s="66">
         <v>12006031</v>
       </c>
-      <c r="D82" s="88">
+      <c r="D82" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24693,10 +24692,10 @@
       <c r="B83" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C83" s="87">
+      <c r="C83" s="66">
         <v>11803588</v>
       </c>
-      <c r="D83" s="88">
+      <c r="D83" s="67">
         <v>44562</v>
       </c>
     </row>
@@ -24707,10 +24706,10 @@
       <c r="B84" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C84" s="87">
+      <c r="C84" s="66">
         <v>11781559</v>
       </c>
-      <c r="D84" s="88">
+      <c r="D84" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24721,10 +24720,10 @@
       <c r="B85" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C85" s="87">
+      <c r="C85" s="66">
         <v>11765225</v>
       </c>
-      <c r="D85" s="88">
+      <c r="D85" s="67">
         <v>45078</v>
       </c>
     </row>
@@ -24735,10 +24734,10 @@
       <c r="B86" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C86" s="87">
+      <c r="C86" s="66">
         <v>11743017</v>
       </c>
-      <c r="D86" s="88">
+      <c r="D86" s="67">
         <v>44013</v>
       </c>
     </row>
@@ -24749,10 +24748,10 @@
       <c r="B87" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C87" s="87">
+      <c r="C87" s="66">
         <v>11459000</v>
       </c>
-      <c r="D87" s="88">
+      <c r="D87" s="67">
         <v>45163</v>
       </c>
     </row>
@@ -24763,10 +24762,10 @@
       <c r="B88" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C88" s="87">
+      <c r="C88" s="66">
         <v>11089511</v>
       </c>
-      <c r="D88" s="88">
+      <c r="D88" s="67">
         <v>44926</v>
       </c>
     </row>
@@ -24777,10 +24776,10 @@
       <c r="B89" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C89" s="87">
+      <c r="C89" s="66">
         <v>10827529</v>
       </c>
-      <c r="D89" s="88">
+      <c r="D89" s="67">
         <v>44927</v>
       </c>
     </row>
@@ -24791,10 +24790,10 @@
       <c r="B90" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C90" s="87">
+      <c r="C90" s="66">
         <v>10545310</v>
       </c>
-      <c r="D90" s="88">
+      <c r="D90" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24805,10 +24804,10 @@
       <c r="B91" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C91" s="87">
+      <c r="C91" s="66">
         <v>10535535</v>
       </c>
-      <c r="D91" s="88">
+      <c r="D91" s="67">
         <v>44378</v>
       </c>
     </row>
@@ -24819,10 +24818,10 @@
       <c r="B92" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C92" s="87">
+      <c r="C92" s="66">
         <v>10482487</v>
       </c>
-      <c r="D92" s="88">
+      <c r="D92" s="67">
         <v>44523</v>
       </c>
     </row>
@@ -24833,10 +24832,10 @@
       <c r="B93" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C93" s="87">
+      <c r="C93" s="66">
         <v>10467366</v>
       </c>
-      <c r="D93" s="88">
+      <c r="D93" s="67">
         <v>44926</v>
       </c>
     </row>
@@ -24847,10 +24846,10 @@
       <c r="B94" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C94" s="87">
+      <c r="C94" s="66">
         <v>10135373</v>
       </c>
-      <c r="D94" s="88">
+      <c r="D94" s="67">
         <v>44986</v>
       </c>
     </row>
@@ -24861,10 +24860,10 @@
       <c r="B95" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C95" s="87">
+      <c r="C95" s="66">
         <v>10077600</v>
       </c>
-      <c r="D95" s="88">
+      <c r="D95" s="67">
         <v>44927</v>
       </c>
     </row>
@@ -24875,10 +24874,10 @@
       <c r="B96" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C96" s="87">
+      <c r="C96" s="66">
         <v>9756300</v>
       </c>
-      <c r="D96" s="88">
+      <c r="D96" s="67">
         <v>45107</v>
       </c>
     </row>
@@ -24889,10 +24888,10 @@
       <c r="B97" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C97" s="87">
+      <c r="C97" s="66">
         <v>9745149</v>
       </c>
-      <c r="D97" s="88">
+      <c r="D97" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24903,10 +24902,10 @@
       <c r="B98" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C98" s="87">
+      <c r="C98" s="66">
         <v>9597085</v>
       </c>
-      <c r="D98" s="88">
+      <c r="D98" s="67">
         <v>44927</v>
       </c>
     </row>
@@ -24917,10 +24916,10 @@
       <c r="B99" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C99" s="87">
+      <c r="C99" s="66">
         <v>9282410</v>
       </c>
-      <c r="D99" s="88">
+      <c r="D99" s="67">
         <v>44196</v>
       </c>
     </row>
@@ -24931,10 +24930,10 @@
       <c r="B100" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C100" s="87">
+      <c r="C100" s="66">
         <v>9200617</v>
       </c>
-      <c r="D100" s="88">
+      <c r="D100" s="67">
         <v>44927</v>
       </c>
     </row>
@@ -24945,10 +24944,10 @@
       <c r="B101" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C101" s="87">
+      <c r="C101" s="66">
         <v>9129652</v>
       </c>
-      <c r="D101" s="88">
+      <c r="D101" s="67">
         <v>45108</v>
       </c>
     </row>
@@ -24959,10 +24958,10 @@
       <c r="B102" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C102" s="87">
+      <c r="C102" s="66">
         <v>8865270</v>
       </c>
-      <c r="D102" s="88">
+      <c r="D102" s="67">
         <v>45016</v>
       </c>
     </row>
@@ -24973,10 +24972,10 @@
       <c r="B103" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C103" s="87">
+      <c r="C103" s="66">
         <v>8494260</v>
       </c>
-      <c r="D103" s="88">
+      <c r="D103" s="67">
         <v>44743</v>
       </c>
     </row>
@@ -24992,7 +24991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4BDBC3-F649-4790-8322-628AD0D4DA43}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -25002,1736 +25001,1736 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" t="s">
         <v>533</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="89">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="89">
+      <c r="C2">
         <v>1411750000</v>
       </c>
       <c r="D2" s="65">
         <v>44926</v>
       </c>
-      <c r="E2" s="89">
+      <c r="E2">
         <v>1411750000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="89">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" t="s">
         <v>431</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3">
         <v>1392329000</v>
       </c>
       <c r="D3" s="65">
         <v>45108</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3">
         <v>1392329000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="89">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4">
         <v>335305000</v>
       </c>
       <c r="D4" s="65">
         <v>45163</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4">
         <v>335305000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="89">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" t="s">
         <v>433</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5">
         <v>277749853</v>
       </c>
       <c r="D5" s="65">
         <v>44926</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5">
         <v>277749853</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" t="s">
         <v>434</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6">
         <v>241499431</v>
       </c>
       <c r="D6" s="65">
         <v>44986</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6">
         <v>241499431</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" t="s">
         <v>435</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7">
         <v>216783400</v>
       </c>
       <c r="D7" s="65">
         <v>44641</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7">
         <v>216783400</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" t="s">
         <v>436</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8">
         <v>203062512</v>
       </c>
       <c r="D8" s="65">
         <v>44774</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8">
         <v>203062512</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" t="s">
         <v>437</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9">
         <v>169828911</v>
       </c>
       <c r="D9" s="65">
         <v>44726</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9">
         <v>169828911</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" t="s">
         <v>438</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10">
         <v>146424729</v>
       </c>
       <c r="D10" s="65">
         <v>44927</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10">
         <v>146424729</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" t="s">
         <v>439</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11">
         <v>129035733</v>
       </c>
       <c r="D11" s="65">
         <v>45016</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11">
         <v>129035733</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12">
         <v>124560000</v>
       </c>
       <c r="D12" s="65">
         <v>45108</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12">
         <v>124560000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" t="s">
         <v>441</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13">
         <v>110682000</v>
       </c>
       <c r="D13" s="65">
         <v>45163</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13">
         <v>110682000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" t="s">
         <v>442</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14">
         <v>105223000</v>
       </c>
       <c r="D14" s="65">
         <v>45163</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14">
         <v>105223000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" t="s">
         <v>443</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15">
         <v>105163988</v>
       </c>
       <c r="D15" s="65">
         <v>44743</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15">
         <v>105163988</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="89">
+      <c r="C16">
         <v>100000000</v>
       </c>
       <c r="D16" s="65">
         <v>45017</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16">
         <v>100000000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" t="s">
         <v>445</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17">
         <v>95370000</v>
       </c>
       <c r="D17" s="65">
         <v>43647</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17">
         <v>95370000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18">
         <v>85279553</v>
       </c>
       <c r="D18" s="65">
         <v>44926</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18">
         <v>85279553</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19">
         <v>85227900</v>
       </c>
       <c r="D19" s="65">
         <v>45163</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19">
         <v>85227900</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" t="s">
         <v>448</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20">
         <v>84432670</v>
       </c>
       <c r="D20" s="65">
         <v>45016</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20">
         <v>84432670</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" t="s">
         <v>449</v>
       </c>
-      <c r="C21" s="89">
+      <c r="C21">
         <v>68263022</v>
       </c>
       <c r="D21" s="65">
         <v>44378</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21">
         <v>68263022</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22">
         <v>68128000</v>
       </c>
       <c r="D22" s="65">
         <v>45108</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22">
         <v>68128000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" t="s">
         <v>451</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23">
         <v>67026292</v>
       </c>
       <c r="D23" s="65">
         <v>44377</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23">
         <v>67026292</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" t="s">
         <v>452</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24">
         <v>61741120</v>
       </c>
       <c r="D24" s="65">
         <v>44796</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24">
         <v>61741120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" t="s">
         <v>453</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25">
         <v>60604992</v>
       </c>
       <c r="D25" s="65">
         <v>44743</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25">
         <v>60604992</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" t="s">
         <v>454</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26">
         <v>58784790</v>
       </c>
       <c r="D26" s="65">
         <v>45077</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26">
         <v>58784790</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" t="s">
         <v>455</v>
       </c>
-      <c r="C27" s="89">
+      <c r="C27">
         <v>55770232</v>
       </c>
       <c r="D27" s="65">
         <v>44743</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27">
         <v>55770232</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="89">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" t="s">
         <v>456</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28">
         <v>52215503</v>
       </c>
       <c r="D28" s="65">
         <v>45107</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28">
         <v>52215503</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="89">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" t="s">
         <v>457</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29">
         <v>51526000</v>
       </c>
       <c r="D29" s="65">
         <v>44927</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29">
         <v>51526000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="89">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" t="s">
         <v>458</v>
       </c>
-      <c r="C30" s="89">
+      <c r="C30">
         <v>51439038</v>
       </c>
       <c r="D30" s="65">
         <v>44926</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30">
         <v>51439038</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="89">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" t="s">
         <v>459</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31">
         <v>48345223</v>
       </c>
       <c r="D31" s="65">
         <v>45108</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31">
         <v>48345223</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="89">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" t="s">
         <v>460</v>
       </c>
-      <c r="C32" s="89">
+      <c r="C32">
         <v>46044703</v>
       </c>
       <c r="D32" s="65">
         <v>44699</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32">
         <v>46044703</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="89">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" t="s">
         <v>461</v>
       </c>
-      <c r="C33" s="89">
+      <c r="C33">
         <v>45400000</v>
       </c>
       <c r="D33" s="65">
         <v>44562</v>
       </c>
-      <c r="E33" s="89">
+      <c r="E33">
         <v>45400000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="89">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" t="s">
         <v>462</v>
       </c>
-      <c r="C34" s="89">
+      <c r="C34">
         <v>43324000</v>
       </c>
       <c r="D34" s="65">
         <v>45108</v>
       </c>
-      <c r="E34" s="89">
+      <c r="E34">
         <v>43324000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="89">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" t="s">
         <v>463</v>
       </c>
-      <c r="C35" s="89">
+      <c r="C35">
         <v>42885900</v>
       </c>
       <c r="D35" s="65">
         <v>44378</v>
       </c>
-      <c r="E35" s="89">
+      <c r="E35">
         <v>42885900</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" t="s">
         <v>464</v>
       </c>
-      <c r="C36" s="89">
+      <c r="C36">
         <v>41984500</v>
       </c>
       <c r="D36" s="65">
         <v>43282</v>
       </c>
-      <c r="E36" s="89">
+      <c r="E36">
         <v>41984500</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="89">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" t="s">
         <v>465</v>
       </c>
-      <c r="C37" s="89">
+      <c r="C37">
         <v>41130432</v>
       </c>
       <c r="D37" s="65">
         <v>44593</v>
       </c>
-      <c r="E37" s="89">
+      <c r="E37">
         <v>41130432</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="89">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" t="s">
         <v>466</v>
       </c>
-      <c r="C38" s="89">
+      <c r="C38">
         <v>40276000</v>
       </c>
       <c r="D38" s="65">
         <v>45163</v>
       </c>
-      <c r="E38" s="89">
+      <c r="E38">
         <v>40276000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="89">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" t="s">
         <v>467</v>
       </c>
-      <c r="C39" s="89">
+      <c r="C39">
         <v>37706000</v>
       </c>
       <c r="D39" s="65">
         <v>45077</v>
       </c>
-      <c r="E39" s="89">
+      <c r="E39">
         <v>37706000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="89">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" t="s">
         <v>468</v>
       </c>
-      <c r="C40" s="89">
+      <c r="C40">
         <v>37074400</v>
       </c>
       <c r="D40" s="65">
         <v>45163</v>
       </c>
-      <c r="E40" s="89">
+      <c r="E40">
         <v>37074400</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="89">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" t="s">
         <v>469</v>
       </c>
-      <c r="C41" s="89">
+      <c r="C41">
         <v>36197788</v>
       </c>
       <c r="D41" s="65">
         <v>45017</v>
       </c>
-      <c r="E41" s="89">
+      <c r="E41">
         <v>36197788</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="89">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="89">
+      <c r="C42">
         <v>34262840</v>
       </c>
       <c r="D42" s="65">
         <v>44927</v>
       </c>
-      <c r="E42" s="89">
+      <c r="E42">
         <v>34262840</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="89">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" t="s">
         <v>471</v>
       </c>
-      <c r="C43" s="89">
+      <c r="C43">
         <v>33396698</v>
       </c>
       <c r="D43" s="65">
         <v>44743</v>
       </c>
-      <c r="E43" s="89">
+      <c r="E43">
         <v>33396698</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="89">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" t="s">
         <v>472</v>
       </c>
-      <c r="C44" s="89">
+      <c r="C44">
         <v>33200000</v>
       </c>
       <c r="D44" s="65">
         <v>45153</v>
       </c>
-      <c r="E44" s="89">
+      <c r="E44">
         <v>33200000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="89">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" t="s">
         <v>473</v>
       </c>
-      <c r="C45" s="89">
+      <c r="C45">
         <v>33086278</v>
       </c>
       <c r="D45" s="65">
         <v>44742</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45">
         <v>33086278</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="89">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" t="s">
         <v>474</v>
       </c>
-      <c r="C46" s="89">
+      <c r="C46">
         <v>32419747</v>
       </c>
       <c r="D46" s="65">
         <v>44743</v>
       </c>
-      <c r="E46" s="89">
+      <c r="E46">
         <v>32419747</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="89">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" t="s">
         <v>475</v>
       </c>
-      <c r="C47" s="89">
+      <c r="C47">
         <v>32175224</v>
       </c>
       <c r="D47" s="65">
         <v>44691</v>
       </c>
-      <c r="E47" s="89">
+      <c r="E47">
         <v>32175224</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="89">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" t="s">
         <v>476</v>
       </c>
-      <c r="C48" s="89">
+      <c r="C48">
         <v>31890000</v>
       </c>
       <c r="D48" s="65">
         <v>44743</v>
       </c>
-      <c r="E48" s="89">
+      <c r="E48">
         <v>31890000</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="89">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" t="s">
         <v>477</v>
       </c>
-      <c r="C49" s="89">
+      <c r="C49">
         <v>30832019</v>
       </c>
       <c r="D49" s="65">
         <v>44374</v>
       </c>
-      <c r="E49" s="89">
+      <c r="E49">
         <v>30832019</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="89">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="89">
+      <c r="C50">
         <v>29389150</v>
       </c>
       <c r="D50" s="65">
         <v>44544</v>
       </c>
-      <c r="E50" s="89">
+      <c r="E50">
         <v>29389150</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="89">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" t="s">
         <v>479</v>
       </c>
-      <c r="C51" s="89">
+      <c r="C51">
         <v>29164578</v>
       </c>
       <c r="D51" s="65">
         <v>44525</v>
       </c>
-      <c r="E51" s="89">
+      <c r="E51">
         <v>29164578</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="89">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" t="s">
         <v>480</v>
       </c>
-      <c r="C52" s="89">
+      <c r="C52">
         <v>28302000</v>
       </c>
       <c r="D52" s="65">
         <v>43646</v>
       </c>
-      <c r="E52" s="89">
+      <c r="E52">
         <v>28302000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="89">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" t="s">
         <v>481</v>
       </c>
-      <c r="C53" s="89">
+      <c r="C53">
         <v>26923353</v>
       </c>
       <c r="D53" s="65">
         <v>44378</v>
       </c>
-      <c r="E53" s="89">
+      <c r="E53">
         <v>26923353</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="89">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" t="s">
         <v>482</v>
       </c>
-      <c r="C54" s="89">
+      <c r="C54">
         <v>26705200</v>
       </c>
       <c r="D54" s="65">
         <v>45163</v>
       </c>
-      <c r="E54" s="89">
+      <c r="E54">
         <v>26705200</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="89">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" t="s">
         <v>483</v>
       </c>
-      <c r="C55" s="89">
+      <c r="C55">
         <v>25660000</v>
       </c>
       <c r="D55" s="65">
         <v>44378</v>
       </c>
-      <c r="E55" s="89">
+      <c r="E55">
         <v>25660000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="89">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" t="s">
         <v>484</v>
       </c>
-      <c r="C56" s="89">
+      <c r="C56">
         <v>24348251</v>
       </c>
       <c r="D56" s="65">
         <v>43647</v>
       </c>
-      <c r="E56" s="89">
+      <c r="E56">
         <v>24348251</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="89">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" t="s">
         <v>485</v>
       </c>
-      <c r="C57" s="89">
+      <c r="C57">
         <v>24112753</v>
       </c>
       <c r="D57" s="65">
         <v>44378</v>
       </c>
-      <c r="E57" s="89">
+      <c r="E57">
         <v>24112753</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+      <c r="A58" t="s">
         <v>486</v>
       </c>
-      <c r="B58" s="89" t="s">
+      <c r="B58" t="s">
         <v>487</v>
       </c>
-      <c r="C58" s="89">
+      <c r="C58">
         <v>23373283</v>
       </c>
       <c r="D58" s="65">
         <v>45107</v>
       </c>
-      <c r="E58" s="89">
+      <c r="E58">
         <v>23373283</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="89">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="89" t="s">
+      <c r="B59" t="s">
         <v>488</v>
       </c>
-      <c r="C59" s="89">
+      <c r="C59">
         <v>23293699</v>
       </c>
       <c r="D59" s="65">
         <v>45108</v>
       </c>
-      <c r="E59" s="89">
+      <c r="E59">
         <v>23293699</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="89">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" t="s">
         <v>489</v>
       </c>
-      <c r="C60" s="89">
+      <c r="C60">
         <v>22923000</v>
       </c>
       <c r="D60" s="65">
         <v>44378</v>
       </c>
-      <c r="E60" s="89">
+      <c r="E60">
         <v>22923000</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="89">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="89" t="s">
+      <c r="B61" t="s">
         <v>490</v>
       </c>
-      <c r="C61" s="89">
+      <c r="C61">
         <v>22185654</v>
       </c>
       <c r="D61" s="65">
         <v>44743</v>
       </c>
-      <c r="E61" s="89">
+      <c r="E61">
         <v>22185654</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="89">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="89" t="s">
+      <c r="B62" t="s">
         <v>491</v>
       </c>
-      <c r="C62" s="89">
+      <c r="C62">
         <v>22181000</v>
       </c>
       <c r="D62" s="65">
         <v>44743</v>
       </c>
-      <c r="E62" s="89">
+      <c r="E62">
         <v>22181000</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="89">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" t="s">
         <v>492</v>
       </c>
-      <c r="C63" s="89">
+      <c r="C63">
         <v>21507723</v>
       </c>
       <c r="D63" s="65">
         <v>44743</v>
       </c>
-      <c r="E63" s="89">
+      <c r="E63">
         <v>21507723</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="89">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="89" t="s">
+      <c r="B64" t="s">
         <v>493</v>
       </c>
-      <c r="C64" s="89">
+      <c r="C64">
         <v>19960889</v>
       </c>
       <c r="D64" s="65">
         <v>45107</v>
       </c>
-      <c r="E64" s="89">
+      <c r="E64">
         <v>19960889</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="89">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="89" t="s">
+      <c r="B65" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="89">
+      <c r="C65">
         <v>19899377</v>
       </c>
       <c r="D65" s="65">
         <v>45108</v>
       </c>
-      <c r="E65" s="89">
+      <c r="E65">
         <v>19899377</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="89">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="89" t="s">
+      <c r="B66" t="s">
         <v>495</v>
       </c>
-      <c r="C66" s="89">
+      <c r="C66">
         <v>19610769</v>
       </c>
       <c r="D66" s="65">
         <v>44818</v>
       </c>
-      <c r="E66" s="89">
+      <c r="E66">
         <v>19610769</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="89">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" t="s">
         <v>496</v>
       </c>
-      <c r="C67" s="89">
+      <c r="C67">
         <v>19053815</v>
       </c>
       <c r="D67" s="65">
         <v>44759</v>
       </c>
-      <c r="E67" s="89">
+      <c r="E67">
         <v>19053815</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="89">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="89" t="s">
+      <c r="B68" t="s">
         <v>497</v>
       </c>
-      <c r="C68" s="89">
+      <c r="C68">
         <v>18354600</v>
       </c>
       <c r="D68" s="65">
         <v>45163</v>
       </c>
-      <c r="E68" s="89">
+      <c r="E68">
         <v>18354600</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="89">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="89" t="s">
+      <c r="B69" t="s">
         <v>498</v>
       </c>
-      <c r="C69" s="89">
+      <c r="C69">
         <v>18143379</v>
       </c>
       <c r="D69" s="65">
         <v>45108</v>
       </c>
-      <c r="E69" s="89">
+      <c r="E69">
         <v>18143379</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="89">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="89" t="s">
+      <c r="B70" t="s">
         <v>499</v>
       </c>
-      <c r="C70" s="89">
+      <c r="C70">
         <v>17904300</v>
       </c>
       <c r="D70" s="65">
         <v>45163</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70">
         <v>17904300</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="89">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="89" t="s">
+      <c r="B71" t="s">
         <v>500</v>
       </c>
-      <c r="C71" s="89">
+      <c r="C71">
         <v>17223497</v>
       </c>
       <c r="D71" s="65">
         <v>44378</v>
       </c>
-      <c r="E71" s="89">
+      <c r="E71">
         <v>17223497</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="89">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="89" t="s">
+      <c r="B72" t="s">
         <v>501</v>
       </c>
-      <c r="C72" s="89">
+      <c r="C72">
         <v>17109746</v>
       </c>
       <c r="D72" s="65">
         <v>44378</v>
       </c>
-      <c r="E72" s="89">
+      <c r="E72">
         <v>17109746</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="89">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="89" t="s">
+      <c r="B73" t="s">
         <v>502</v>
       </c>
-      <c r="C73" s="89">
+      <c r="C73">
         <v>16818391</v>
       </c>
       <c r="D73" s="65">
         <v>44378</v>
       </c>
-      <c r="E73" s="89">
+      <c r="E73">
         <v>16818391</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="89">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="89" t="s">
+      <c r="B74" t="s">
         <v>503</v>
       </c>
-      <c r="C74" s="89">
+      <c r="C74">
         <v>15552211</v>
       </c>
       <c r="D74" s="65">
         <v>43527</v>
       </c>
-      <c r="E74" s="89">
+      <c r="E74">
         <v>15552211</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="89">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="89" t="s">
+      <c r="B75" t="s">
         <v>504</v>
       </c>
-      <c r="C75" s="89">
+      <c r="C75">
         <v>15178979</v>
       </c>
       <c r="D75" s="65">
         <v>44671</v>
       </c>
-      <c r="E75" s="89">
+      <c r="E75">
         <v>15178979</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="89">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="89" t="s">
+      <c r="B76" t="s">
         <v>505</v>
       </c>
-      <c r="C76" s="89">
+      <c r="C76">
         <v>13261638</v>
       </c>
       <c r="D76" s="65">
         <v>44743</v>
       </c>
-      <c r="E76" s="89">
+      <c r="E76">
         <v>13261638</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="89">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="89" t="s">
+      <c r="B77" t="s">
         <v>506</v>
       </c>
-      <c r="C77" s="89">
+      <c r="C77">
         <v>13249924</v>
       </c>
       <c r="D77" s="65">
         <v>44013</v>
       </c>
-      <c r="E77" s="89">
+      <c r="E77">
         <v>13249924</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="89">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="89" t="s">
+      <c r="B78" t="s">
         <v>507</v>
       </c>
-      <c r="C78" s="89">
+      <c r="C78">
         <v>13246394</v>
       </c>
       <c r="D78" s="65">
         <v>44788</v>
       </c>
-      <c r="E78" s="89">
+      <c r="E78">
         <v>13246394</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="89">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="89" t="s">
+      <c r="B79" t="s">
         <v>508</v>
       </c>
-      <c r="C79" s="89">
+      <c r="C79">
         <v>12837740</v>
       </c>
       <c r="D79" s="65">
         <v>44743</v>
       </c>
-      <c r="E79" s="89">
+      <c r="E79">
         <v>12837740</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="89">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="89" t="s">
+      <c r="B80" t="s">
         <v>509</v>
       </c>
-      <c r="C80" s="89">
+      <c r="C80">
         <v>12606998</v>
       </c>
       <c r="D80" s="65">
         <v>45108</v>
       </c>
-      <c r="E80" s="89">
+      <c r="E80">
         <v>12606998</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="89">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="89" t="s">
+      <c r="B81" t="s">
         <v>510</v>
       </c>
-      <c r="C81" s="89">
+      <c r="C81">
         <v>12006031</v>
       </c>
       <c r="D81" s="65">
         <v>44743</v>
       </c>
-      <c r="E81" s="89">
+      <c r="E81">
         <v>12006031</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="89">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="89" t="s">
+      <c r="B82" t="s">
         <v>511</v>
       </c>
-      <c r="C82" s="89">
+      <c r="C82">
         <v>11803588</v>
       </c>
       <c r="D82" s="65">
         <v>44562</v>
       </c>
-      <c r="E82" s="89">
+      <c r="E82">
         <v>11803588</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="89">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="89" t="s">
+      <c r="B83" t="s">
         <v>512</v>
       </c>
-      <c r="C83" s="89">
+      <c r="C83">
         <v>11781559</v>
       </c>
       <c r="D83" s="65">
         <v>44378</v>
       </c>
-      <c r="E83" s="89">
+      <c r="E83">
         <v>11781559</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="89">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="89" t="s">
+      <c r="B84" t="s">
         <v>513</v>
       </c>
-      <c r="C84" s="89">
+      <c r="C84">
         <v>11765225</v>
       </c>
       <c r="D84" s="65">
         <v>45078</v>
       </c>
-      <c r="E84" s="89">
+      <c r="E84">
         <v>11765225</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="89">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="89" t="s">
+      <c r="B85" t="s">
         <v>514</v>
       </c>
-      <c r="C85" s="89">
+      <c r="C85">
         <v>11743017</v>
       </c>
       <c r="D85" s="65">
         <v>44013</v>
       </c>
-      <c r="E85" s="89">
+      <c r="E85">
         <v>11743017</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="89">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="89" t="s">
+      <c r="B86" t="s">
         <v>515</v>
       </c>
-      <c r="C86" s="89">
+      <c r="C86">
         <v>11459000</v>
       </c>
       <c r="D86" s="65">
         <v>45163</v>
       </c>
-      <c r="E86" s="89">
+      <c r="E86">
         <v>11459000</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="89">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="89" t="s">
+      <c r="B87" t="s">
         <v>516</v>
       </c>
-      <c r="C87" s="89">
+      <c r="C87">
         <v>11089511</v>
       </c>
       <c r="D87" s="65">
         <v>44926</v>
       </c>
-      <c r="E87" s="89">
+      <c r="E87">
         <v>11089511</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="89">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="89" t="s">
+      <c r="B88" t="s">
         <v>517</v>
       </c>
-      <c r="C88" s="89">
+      <c r="C88">
         <v>10827529</v>
       </c>
       <c r="D88" s="65">
         <v>44927</v>
       </c>
-      <c r="E88" s="89">
+      <c r="E88">
         <v>10827529</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="89">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="89" t="s">
+      <c r="B89" t="s">
         <v>518</v>
       </c>
-      <c r="C89" s="89">
+      <c r="C89">
         <v>10545310</v>
       </c>
       <c r="D89" s="65">
         <v>45108</v>
       </c>
-      <c r="E89" s="89">
+      <c r="E89">
         <v>10545310</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="89">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="89" t="s">
+      <c r="B90" t="s">
         <v>519</v>
       </c>
-      <c r="C90" s="89">
+      <c r="C90">
         <v>10535535</v>
       </c>
       <c r="D90" s="65">
         <v>44378</v>
       </c>
-      <c r="E90" s="89">
+      <c r="E90">
         <v>10535535</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="89">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="89" t="s">
+      <c r="B91" t="s">
         <v>520</v>
       </c>
-      <c r="C91" s="89">
+      <c r="C91">
         <v>10482487</v>
       </c>
       <c r="D91" s="65">
         <v>44523</v>
       </c>
-      <c r="E91" s="89">
+      <c r="E91">
         <v>10482487</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="89">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="89" t="s">
+      <c r="B92" t="s">
         <v>521</v>
       </c>
-      <c r="C92" s="89">
+      <c r="C92">
         <v>10467366</v>
       </c>
       <c r="D92" s="65">
         <v>44926</v>
       </c>
-      <c r="E92" s="89">
+      <c r="E92">
         <v>10467366</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="89">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="89" t="s">
+      <c r="B93" t="s">
         <v>522</v>
       </c>
-      <c r="C93" s="89">
+      <c r="C93">
         <v>10135373</v>
       </c>
       <c r="D93" s="65">
         <v>44986</v>
       </c>
-      <c r="E93" s="89">
+      <c r="E93">
         <v>10135373</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="89">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="89" t="s">
+      <c r="B94" t="s">
         <v>523</v>
       </c>
-      <c r="C94" s="89">
+      <c r="C94">
         <v>10077600</v>
       </c>
       <c r="D94" s="65">
         <v>44927</v>
       </c>
-      <c r="E94" s="89">
+      <c r="E94">
         <v>10077600</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="89">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="89" t="s">
+      <c r="B95" t="s">
         <v>524</v>
       </c>
-      <c r="C95" s="89">
+      <c r="C95">
         <v>9756300</v>
       </c>
       <c r="D95" s="65">
         <v>45107</v>
       </c>
-      <c r="E95" s="89">
+      <c r="E95">
         <v>9756300</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="89">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="89" t="s">
+      <c r="B96" t="s">
         <v>525</v>
       </c>
-      <c r="C96" s="89">
+      <c r="C96">
         <v>9745149</v>
       </c>
       <c r="D96" s="65">
         <v>45108</v>
       </c>
-      <c r="E96" s="89">
+      <c r="E96">
         <v>9745149</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="89">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="89" t="s">
+      <c r="B97" t="s">
         <v>526</v>
       </c>
-      <c r="C97" s="89">
+      <c r="C97">
         <v>9597085</v>
       </c>
       <c r="D97" s="65">
         <v>44927</v>
       </c>
-      <c r="E97" s="89">
+      <c r="E97">
         <v>9597085</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="89">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="89" t="s">
+      <c r="B98" t="s">
         <v>527</v>
       </c>
-      <c r="C98" s="89">
+      <c r="C98">
         <v>9282410</v>
       </c>
       <c r="D98" s="65">
         <v>44196</v>
       </c>
-      <c r="E98" s="89">
+      <c r="E98">
         <v>9282410</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="89">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="89" t="s">
+      <c r="B99" t="s">
         <v>528</v>
       </c>
-      <c r="C99" s="89">
+      <c r="C99">
         <v>9200617</v>
       </c>
       <c r="D99" s="65">
         <v>44927</v>
       </c>
-      <c r="E99" s="89">
+      <c r="E99">
         <v>9200617</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="89">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="89" t="s">
+      <c r="B100" t="s">
         <v>529</v>
       </c>
-      <c r="C100" s="89">
+      <c r="C100">
         <v>9129652</v>
       </c>
       <c r="D100" s="65">
         <v>45108</v>
       </c>
-      <c r="E100" s="89">
+      <c r="E100">
         <v>9129652</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="89">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="89" t="s">
+      <c r="B101" t="s">
         <v>530</v>
       </c>
-      <c r="C101" s="89">
+      <c r="C101">
         <v>8865270</v>
       </c>
       <c r="D101" s="65">
         <v>45016</v>
       </c>
-      <c r="E101" s="89">
+      <c r="E101">
         <v>8865270</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="89">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="89" t="s">
+      <c r="B102" t="s">
         <v>531</v>
       </c>
-      <c r="C102" s="89">
+      <c r="C102">
         <v>8494260</v>
       </c>
       <c r="D102" s="65">
         <v>44743</v>
       </c>
-      <c r="E102" s="89">
+      <c r="E102">
         <v>8494260</v>
       </c>
     </row>

--- a/EXCEL/ASSIGNMENT/EXCL ASSIMENT2023.xlsx
+++ b/EXCEL/ASSIGNMENT/EXCL ASSIMENT2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\DA GITHUB\meethirpara9836\EXCEL\ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23620A35-2633-438E-B589-509F88920A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6EE7EC-79D6-43A8-9BE0-E64E7C4705B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-3,5,6" sheetId="1" r:id="rId1"/>
@@ -3487,7 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -12134,7 +12134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2FF429-E1D0-4030-8187-B793992BDD75}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -16907,8 +16907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C6BFB-5834-4F5F-8B9A-1AF1787BFF1D}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17093,19 +17093,19 @@
         <v>100%</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M51" si="4">IF(D3&lt;18,"MINOR","ADULT")</f>
+        <f>IF(D3&lt;R918,"MINOR","ADULT")</f>
         <v>ADULT</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N51" si="5">IF(J3&gt;55,"TEST EASY","TEST HARD")</f>
+        <f t="shared" ref="N3:N51" si="4">IF(J3&gt;55,"TEST EASY","TEST HARD")</f>
         <v>TEST EASY</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O51" si="6">_xlfn.IFS(J3&gt;60," Excellent",J3&gt;40,"Good",J3&lt;40," Failed")</f>
+        <f t="shared" ref="O3:O51" si="5">_xlfn.IFS(J3&gt;60," Excellent",J3&gt;40,"Good",J3&lt;40," Failed")</f>
         <v xml:space="preserve"> Excellent</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P51" si="7">IF(MIN(E3:H3)&lt;40,"FAIL","PASS")</f>
+        <f t="shared" ref="P3:P51" si="6">IF(MIN(E3:H3)&lt;40,"FAIL","PASS")</f>
         <v>PASS</v>
       </c>
       <c r="R3" s="39">
@@ -17158,19 +17158,19 @@
         <v>100%</v>
       </c>
       <c r="M4" t="str">
+        <f t="shared" ref="M3:M51" si="7">IF(D4&lt;18,"MINOR","ADULT")</f>
+        <v>ADULT</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N4" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O4" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O4" t="str">
+        <v xml:space="preserve"> Excellent</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> Excellent</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
       <c r="R4" s="39">
@@ -17223,19 +17223,19 @@
         <v>50%</v>
       </c>
       <c r="M5" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N5" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O5" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P5" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
       <c r="R5" s="39">
@@ -17288,19 +17288,19 @@
         <v>50%</v>
       </c>
       <c r="M6" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N6" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O6" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P6" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17346,19 +17346,19 @@
         <v>50%</v>
       </c>
       <c r="M7" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N7" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O7" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P7" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17404,19 +17404,19 @@
         <v>50%</v>
       </c>
       <c r="M8" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N8" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O8" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17462,19 +17462,19 @@
         <v>50%</v>
       </c>
       <c r="M9" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N9" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O9" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17520,19 +17520,19 @@
         <v>50%</v>
       </c>
       <c r="M10" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N10" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O10" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17578,19 +17578,19 @@
         <v>50%</v>
       </c>
       <c r="M11" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N11" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O11" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17636,19 +17636,19 @@
         <v>50%</v>
       </c>
       <c r="M12" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N12" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O12" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17694,19 +17694,19 @@
         <v>50%</v>
       </c>
       <c r="M13" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N13" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O13" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17752,19 +17752,19 @@
         <v>50%</v>
       </c>
       <c r="M14" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N14" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O14" t="str">
+        <v xml:space="preserve"> Excellent</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> Excellent</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17810,19 +17810,19 @@
         <v>50%</v>
       </c>
       <c r="M15" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N15" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O15" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O15" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17868,19 +17868,19 @@
         <v>50%</v>
       </c>
       <c r="M16" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N16" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O16" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17926,19 +17926,19 @@
         <v>50%</v>
       </c>
       <c r="M17" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N17" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O17" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -17984,19 +17984,19 @@
         <v>50%</v>
       </c>
       <c r="M18" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N18" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O18" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O18" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="7"/>
         <v>FAIL</v>
       </c>
     </row>
@@ -18042,19 +18042,19 @@
         <v>50%</v>
       </c>
       <c r="M19" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N19" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O19" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O19" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="7"/>
         <v>FAIL</v>
       </c>
     </row>
@@ -18100,19 +18100,19 @@
         <v>50%</v>
       </c>
       <c r="M20" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N20" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O20" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O20" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P20" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18158,19 +18158,19 @@
         <v>50%</v>
       </c>
       <c r="M21" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N21" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O21" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P21" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18216,15 +18216,15 @@
         <v>50%</v>
       </c>
       <c r="M22" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N22" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="6"/>
         <v xml:space="preserve"> Failed</v>
       </c>
       <c r="P22" t="str">
@@ -18274,19 +18274,19 @@
         <v>50%</v>
       </c>
       <c r="M23" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N23" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O23" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O23" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18332,19 +18332,19 @@
         <v>50%</v>
       </c>
       <c r="M24" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N24" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O24" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="7"/>
         <v>FAIL</v>
       </c>
     </row>
@@ -18390,19 +18390,19 @@
         <v>50%</v>
       </c>
       <c r="M25" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N25" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O25" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18448,19 +18448,19 @@
         <v>50%</v>
       </c>
       <c r="M26" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N26" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O26" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18506,19 +18506,19 @@
         <v>50%</v>
       </c>
       <c r="M27" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N27" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O27" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O27" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P27" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18564,19 +18564,19 @@
         <v>50%</v>
       </c>
       <c r="M28" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N28" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O28" t="str">
+        <v xml:space="preserve"> Excellent</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> Excellent</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18622,15 +18622,15 @@
         <v>50%</v>
       </c>
       <c r="M29" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N29" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O29" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="6"/>
         <v>Good</v>
       </c>
       <c r="P29" t="str">
@@ -18680,19 +18680,19 @@
         <v>50%</v>
       </c>
       <c r="M30" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N30" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O30" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O30" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18738,19 +18738,19 @@
         <v>50%</v>
       </c>
       <c r="M31" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N31" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N31" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O31" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O31" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="7"/>
         <v>FAIL</v>
       </c>
     </row>
@@ -18796,19 +18796,19 @@
         <v>50%</v>
       </c>
       <c r="M32" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N32" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N32" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O32" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O32" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P32" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18854,19 +18854,19 @@
         <v>50%</v>
       </c>
       <c r="M33" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N33" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N33" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O33" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O33" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18912,19 +18912,19 @@
         <v>50%</v>
       </c>
       <c r="M34" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N34" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N34" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O34" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O34" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P34" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -18970,15 +18970,15 @@
         <v>50%</v>
       </c>
       <c r="M35" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N35" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N35" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O35" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="6"/>
         <v>Good</v>
       </c>
       <c r="P35" t="str">
@@ -19028,19 +19028,19 @@
         <v>50%</v>
       </c>
       <c r="M36" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N36" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N36" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O36" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O36" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P36" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19086,19 +19086,19 @@
         <v>50%</v>
       </c>
       <c r="M37" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N37" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N37" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O37" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O37" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P37" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19144,15 +19144,15 @@
         <v>50%</v>
       </c>
       <c r="M38" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N38" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N38" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O38" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="6"/>
         <v>Good</v>
       </c>
       <c r="P38" t="str">
@@ -19202,19 +19202,19 @@
         <v>50%</v>
       </c>
       <c r="M39" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N39" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N39" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O39" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O39" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P39" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19260,19 +19260,19 @@
         <v>50%</v>
       </c>
       <c r="M40" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N40" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N40" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O40" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O40" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P40" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19318,19 +19318,19 @@
         <v>50%</v>
       </c>
       <c r="M41" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N41" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N41" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O41" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O41" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P41" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19376,19 +19376,19 @@
         <v>50%</v>
       </c>
       <c r="M42" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N42" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N42" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O42" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O42" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P42" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19434,19 +19434,19 @@
         <v>50%</v>
       </c>
       <c r="M43" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N43" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N43" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O43" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O43" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P43" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19492,19 +19492,19 @@
         <v>50%</v>
       </c>
       <c r="M44" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N44" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N44" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O44" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O44" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P44" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19550,19 +19550,19 @@
         <v>50%</v>
       </c>
       <c r="M45" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N45" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N45" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O45" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O45" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P45" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19608,19 +19608,19 @@
         <v>50%</v>
       </c>
       <c r="M46" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N46" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N46" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O46" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O46" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P46" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19666,19 +19666,19 @@
         <v>50%</v>
       </c>
       <c r="M47" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N47" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N47" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O47" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O47" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P47" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19724,19 +19724,19 @@
         <v>50%</v>
       </c>
       <c r="M48" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N48" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N48" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O48" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O48" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P48" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19782,19 +19782,19 @@
         <v>50%</v>
       </c>
       <c r="M49" t="str">
+        <f t="shared" si="7"/>
+        <v>MINOR</v>
+      </c>
+      <c r="N49" t="str">
         <f t="shared" si="4"/>
-        <v>MINOR</v>
-      </c>
-      <c r="N49" t="str">
+        <v>TEST HARD</v>
+      </c>
+      <c r="O49" t="str">
         <f t="shared" si="5"/>
-        <v>TEST HARD</v>
-      </c>
-      <c r="O49" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P49" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19840,19 +19840,19 @@
         <v>50%</v>
       </c>
       <c r="M50" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N50" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N50" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O50" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O50" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P50" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P50" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
@@ -19898,19 +19898,19 @@
         <v>50%</v>
       </c>
       <c r="M51" t="str">
+        <f t="shared" si="7"/>
+        <v>ADULT</v>
+      </c>
+      <c r="N51" t="str">
         <f t="shared" si="4"/>
-        <v>ADULT</v>
-      </c>
-      <c r="N51" t="str">
+        <v>TEST EASY</v>
+      </c>
+      <c r="O51" t="str">
         <f t="shared" si="5"/>
-        <v>TEST EASY</v>
-      </c>
-      <c r="O51" t="str">
+        <v>Good</v>
+      </c>
+      <c r="P51" t="str">
         <f t="shared" si="6"/>
-        <v>Good</v>
-      </c>
-      <c r="P51" t="str">
-        <f t="shared" si="7"/>
         <v>PASS</v>
       </c>
     </row>
